--- a/Data/Config_Dev.xlsx
+++ b/Data/Config_Dev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif.Islam\Documents\UiPath\GetCustomerData\REFProj\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B275F-E9C5-409A-AF3A-1BC1DE90EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3D84A8-A5B1-461A-A1B4-5DB18C5E678A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config_Dev.xlsx
+++ b/Data/Config_Dev.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif.Islam\Documents\UiPath\GetCustomerData\REFProj\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3D84A8-A5B1-461A-A1B4-5DB18C5E678A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED77F59-18B6-4D35-B779-4B2A61C2C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
-    <sheet name="DBQueries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -44,9 +43,6 @@
   </si>
   <si>
     <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Exceptions_Screenshots</t>
   </si>
   <si>
     <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
@@ -211,36 +207,6 @@
     <t>ConnectionString</t>
   </si>
   <si>
-    <t>GetCustomerData</t>
-  </si>
-  <si>
-    <t>QueryName</t>
-  </si>
-  <si>
-    <t>QueryType</t>
-  </si>
-  <si>
-    <t>QueryText</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>TargetTable</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>SELECT * FROM Customers WHERE CustomerID = @CustomerID</t>
-  </si>
-  <si>
-    <t>CustomerID</t>
-  </si>
-  <si>
-    <t>Customers</t>
-  </si>
-  <si>
     <t>DBProvider</t>
   </si>
   <si>
@@ -254,13 +220,22 @@
   </si>
   <si>
     <t>Data Source=10.20.30.82;Initial Catalog=CustomerDB;User Id=sql.user;Password=Asif@123;Encrypt=False</t>
+  </si>
+  <si>
+    <t>OpenBrowserUrl</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/login</t>
+  </si>
+  <si>
+    <t>Data\Screenshots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,13 +266,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -320,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,7 +299,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -697,55 +664,55 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -753,39 +720,39 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -793,7 +760,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -801,23 +768,23 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
@@ -830,13 +797,20 @@
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1812,9 +1786,10 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{BFDFB75C-0A05-4C7B-8197-D479AC5E93AC}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{5735571F-BB1C-4196-8B77-CE61368D88E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1822,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1876,18 +1851,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1896,112 +1871,112 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2985,7 +2960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3003,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -4034,61 +4011,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E167CFF-7282-4002-B7A6-DA1359C3787D}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="65.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Data/Config_Dev.xlsx
+++ b/Data/Config_Dev.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif.Islam\Documents\UiPath\GetCustomerData\REFProj\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif.Islam\Documents\UiPath\GetCustomerData\ReFrameworkTemplates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED77F59-18B6-4D35-B779-4B2A61C2C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60AE3E9-E8E8-45AD-AFA5-3159FD095393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -219,16 +219,16 @@
     <t>StatusToProcess</t>
   </si>
   <si>
+    <t>OpenBrowserUrl</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/login</t>
+  </si>
+  <si>
+    <t>Data\Screenshots</t>
+  </si>
+  <si>
     <t>Data Source=10.20.30.82;Initial Catalog=CustomerDB;User Id=sql.user;Password=Asif@123;Encrypt=False</t>
-  </si>
-  <si>
-    <t>OpenBrowserUrl</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/login</t>
-  </si>
-  <si>
-    <t>Data\Screenshots</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -776,7 +776,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
@@ -805,10 +805,10 @@
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1871,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>

--- a/Data/Config_Dev.xlsx
+++ b/Data/Config_Dev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif.Islam\Documents\UiPath\GetCustomerData\ReFrameworkTemplates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60AE3E9-E8E8-45AD-AFA5-3159FD095393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA508F4-0B58-4D59-8088-6418AA856411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>Data Source=10.20.30.82;Initial Catalog=CustomerDB;User Id=sql.user;Password=Asif@123;Encrypt=False</t>
+  </si>
+  <si>
+    <t>InstrumentationKey</t>
+  </si>
+  <si>
+    <t>c97c1158-d2f5-4e66-9cc1-0961733072c9</t>
   </si>
 </sst>
 </file>
@@ -617,7 +623,7 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -811,7 +817,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config_Dev.xlsx
+++ b/Data/Config_Dev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif.Islam\Documents\UiPath\GetCustomerData\ReFrameworkTemplates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA508F4-0B58-4D59-8088-6418AA856411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFE97B4-FE40-4376-879F-524769B7CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>c97c1158-d2f5-4e66-9cc1-0961733072c9</t>
+  </si>
+  <si>
+    <t>GlobalExceptionMaxRetryCount</t>
+  </si>
+  <si>
+    <t>GlobalExceptionRetryDelayInSec</t>
   </si>
 </sst>
 </file>
@@ -623,7 +629,7 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="A21:B21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -825,8 +831,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config_Dev.xlsx
+++ b/Data/Config_Dev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asif.Islam\Documents\UiPath\GetCustomerData\ReFrameworkTemplates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFE97B4-FE40-4376-879F-524769B7CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD677F82-2C08-4090-9222-0E1BD79AA964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1831,7 +1831,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
